--- a/biology/Histoire de la zoologie et de la botanique/Aaron_Louis_Treadwell/Aaron_Louis_Treadwell.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Aaron_Louis_Treadwell/Aaron_Louis_Treadwell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aaron Louis Treadwell, né en 1866 à Redding (Connecticut) et mort en 1947, est un zoologiste américain.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à l’université Wesleyenne, où il obtient son Bachelor of Sciences en 1888 et son Master of Sciences en 1890, puis à l’université de Chicago, où il obtient son doctorat en 1898. Il devient professeur de géologie et de zoologie à l’université Miami de 1891 à 1900. Puis il occupe les fonctions de professeur de biologie au Vassar College de 1900 à 1914, puis de zoologie à partir de 1914. En plus de ses fonctions d’enseignant, il est instructeur au Laboratoire de biologie marine (MBL) à Woods Hole (Massachusetts). Treadwell fait paraître The Cytogeny of Podarke obscura (1901) et se consacre principalement à l’embryologie et à la taxinomie des annélides.
 </t>
